--- a/output/inference_results/test_sheets/batch_001/test_sheet (7).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (7).xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1白细胞</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,19 +456,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>←4.00~10.0(10~9//</t>
+          <t>4.00-10.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>←4.00~10.0(10~9//</t>
+          <t>10^9/L</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2红细胞</t>
+          <t>红细胞</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,78 +478,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.50~5.501012/L</t>
+          <t>3.50-5.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50~5.501012/L</t>
+          <t>10^12/L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3血红蛋白</t>
+          <t>血红蛋白</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>122.010.0~160.（g/L</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>122.010.0~160.（g/L</t>
+          <t>010.0-160.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>122.010.0~160.（g/L</t>
+          <t>g/L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4红细胞压积</t>
+          <t>红细胞压积</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>35.436.0~50.0%</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>35.436.0~50.0%</t>
+          <t>436.0-50.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35.436.0~50.0%</t>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5血小板</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>307→100300 109/L</t>
-        </is>
-      </c>
+          <t>血小板</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>307→100300 109/L</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>307→100300 109/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
     </row>
@@ -562,19 +558,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.0~13.0fl</t>
+          <t>9.0-13.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.0~13.0fl</t>
+          <t>fL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7血小板压积</t>
+          <t>血小板压积</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,29 +584,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8红细胞平均体积</t>
+          <t>红细胞平均体积</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>79.6486.0~100.(fl</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>79.6486.0~100.(fl</t>
+          <t>6486.0-100.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.6486.0~100.(fl</t>
+          <t>fL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9平均血红蛋白量</t>
+          <t>平均血红蛋白量</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -620,81 +616,81 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26.0~33,0pg</t>
+          <t>26.0-33.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26.0~33,0pg</t>
+          <t>pg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10平均血红蛋白浓度345</t>
+          <t>平均血红蛋白浓度</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>310 ~370g/1</t>
+          <t>310-370</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>310 ~370g/1</t>
+          <t>g/L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11中性细胞比率</t>
+          <t>中性细胞比率</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38.445.0-77.0%</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38.445.0-77.0%</t>
+          <t>445.0-77.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>38.445.0-77.0%</t>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12淋巴细胞比率</t>
+          <t>淋巴细胞比率</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>50.4↑20.0~40.0%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>50.4↑20.0~40.0%</t>
+          <t>20.0-40.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50.4↑20.0~40.0%</t>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13单核细胞比率</t>
+          <t>单核细胞比率</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -704,37 +700,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.0~8.0%</t>
+          <t>3.0-8.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.0~8.0%</t>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14嗜酸性粒细胞比率3.6</t>
+          <t>嗜酸性粒细胞比率</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.5~-5.0%</t>
+          <t>0.5-5.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.5~-5.0%</t>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15嗜碱性粒细胞比率</t>
+          <t>嗜碱性粒细胞比率</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -744,14 +740,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0~1.0%</t>
+          <t>0.0-1.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16中性细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -761,14 +757,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0~7.7109</t>
+          <t>2.0-7.7109</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17淋巴细胞数</t>
+          <t>淋巴细胞数</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -778,14 +774,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.80~4,00109</t>
+          <t>0.80-4.00109</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18单核细胞数</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -795,41 +791,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.12~0.80109</t>
+          <t>0.12-0.80109</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1嗜酸性粒细胞数</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.05~0.50109</t>
+          <t>0.05-0.50109</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20嗜碱性粒细胞</t>
+          <t>嗜碱性粒细胞</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.00~0,10109</t>
+          <t>0.00-0.10109</t>
         </is>
       </c>
     </row>
@@ -842,14 +838,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37.0~50.0fl</t>
+          <t>37.0-50.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22RDW-CV</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -861,7 +857,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23血小板分布宽度</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -871,14 +867,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.0~17.0fl</t>
+          <t>9.0-17.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24大型血小板比率</t>
+          <t>大型血小板比率</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13.0~43.0%</t>
+          <t>13.0-43.0</t>
         </is>
       </c>
     </row>

--- a/output/inference_results/test_sheets/batch_001/test_sheet (7).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (7).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,21 @@
           <t>单位</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>检验项目</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>参考范围</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +479,21 @@
           <t>10^9/L</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>嗜碱性粒细胞比率</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0-1.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +516,21 @@
           <t>10^12/L</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中性细胞数</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0-7.7109</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +553,21 @@
           <t>g/L</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>淋巴细胞数</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.80-4.00109</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -525,9 +585,20 @@
           <t>436.0-50.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>%</t>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>单核细胞数</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.12-0.80109</t>
         </is>
       </c>
     </row>
@@ -546,6 +617,21 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>10^9/L</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>嗜酸性粒细胞数</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.05-0.50109</t>
         </is>
       </c>
     </row>
@@ -561,9 +647,20 @@
           <t>9.0-13.0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>fL</t>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>嗜碱性粒细胞</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00-0.10109</t>
         </is>
       </c>
     </row>
@@ -579,7 +676,26 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21红细胞分布宽度</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>红细胞分布宽度</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>38.8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>37.0-50.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -597,11 +713,18 @@
           <t>6486.0-100.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>fL</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RDW-CV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -621,7 +744,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pg</t>
+          <t>23血小板分布宽度</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>血小板分布宽度</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9.0-17.0</t>
         </is>
       </c>
     </row>
@@ -639,7 +777,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>g/L</t>
+          <t>24大型血小板比率</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>大型血小板比率</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>13.0-43.0</t>
         </is>
       </c>
     </row>
@@ -659,11 +812,10 @@
           <t>445.0-77.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -681,11 +833,10 @@
           <t>20.0-40.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -703,11 +854,10 @@
           <t>3.0-8.0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -721,172 +871,10 @@
           <t>0.5-5.0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>嗜碱性粒细胞比率</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.0-1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>中性细胞数</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.0-7.7109</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>淋巴细胞数</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.80-4.00109</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>单核细胞数</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.12-0.80109</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>嗜酸性粒细胞数</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.05-0.50109</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>嗜碱性粒细胞</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.00-0.10109</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>38.8</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>37.0-50.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>RDW-CV</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>血小板分布宽度</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10.8</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9.0-17.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>大型血小板比率</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>13.0-43.0</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
